--- a/docs/Figures/CircuitWorking.xlsx
+++ b/docs/Figures/CircuitWorking.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\docs\Figures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8ECE1969-901C-4DF4-A16E-0D727784D260}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-195" windowWidth="23700" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="-60" yWindow="-195" windowWidth="23700" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidationDataCircuitList" sheetId="4" r:id="rId1"/>
@@ -425,9 +431,6 @@
     <t>SwitchRCSINCurrent</t>
   </si>
   <si>
-    <t>BioGears Included</t>
-  </si>
-  <si>
     <t>Other Possible Extensions</t>
   </si>
   <si>
@@ -660,12 +663,15 @@
   </si>
   <si>
     <t>Intentionally failing adding voltage sources in parallel</t>
+  </si>
+  <si>
+    <t>Pulse Included</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1499,6 +1505,42 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1511,44 +1553,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1601,6 +1607,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1648,7 +1657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1681,9 +1690,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1716,6 +1742,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1891,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -1974,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>1</v>
@@ -1997,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>1</v>
@@ -2020,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>1</v>
@@ -2043,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>1</v>
@@ -2066,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>1</v>
@@ -2089,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>1</v>
@@ -2112,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>1</v>
@@ -2135,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>1</v>
@@ -2158,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>1</v>
@@ -2181,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>1</v>
@@ -2204,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>1</v>
@@ -2227,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>1</v>
@@ -2250,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>1</v>
@@ -2273,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>1</v>
@@ -2296,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>1</v>
@@ -2319,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>1</v>
@@ -2342,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>1</v>
@@ -2365,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>1</v>
@@ -2388,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>1</v>
@@ -2411,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>1</v>
@@ -2434,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>1</v>
@@ -2457,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>1</v>
@@ -2480,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>1</v>
@@ -2503,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>1</v>
@@ -2526,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>1</v>
@@ -2549,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>1</v>
@@ -2572,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>1</v>
@@ -2595,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>1</v>
@@ -2612,13 +2655,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>1</v>
@@ -2635,13 +2678,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>1</v>
@@ -2658,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>1</v>
@@ -2687,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>1</v>
@@ -2710,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>1</v>
@@ -2733,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>1</v>
@@ -2756,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>1</v>
@@ -2779,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>1</v>
@@ -2802,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>1</v>
       </c>
@@ -2825,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>1</v>
       </c>
@@ -2848,13 +2891,13 @@
         <v>1</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>1</v>
       </c>
@@ -2871,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>1</v>
       </c>
@@ -2894,13 +2937,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>1</v>
       </c>
@@ -2917,13 +2960,13 @@
         <v>1</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>1</v>
       </c>
@@ -2940,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>1</v>
       </c>
@@ -2963,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>1</v>
       </c>
@@ -2986,13 +3029,13 @@
         <v>1</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>1</v>
       </c>
@@ -3009,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>1</v>
@@ -3032,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>1</v>
@@ -3055,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>1</v>
@@ -3078,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>1</v>
@@ -3101,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>1</v>
@@ -3124,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>1</v>
@@ -3147,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>1</v>
@@ -3170,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>1</v>
@@ -3193,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>1</v>
@@ -3216,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>1</v>
@@ -3239,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>1</v>
@@ -3262,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>1</v>
@@ -3285,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>1</v>
@@ -3308,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>1</v>
@@ -3331,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>1</v>
@@ -3354,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>1</v>
@@ -3377,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>1</v>
@@ -3400,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>1</v>
@@ -3423,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>1</v>
@@ -3446,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>1</v>
@@ -3469,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>1</v>
@@ -3492,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>1</v>
@@ -3515,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>1</v>
@@ -3538,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>1</v>
@@ -3561,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>1</v>
@@ -3584,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>1</v>
@@ -3607,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>1</v>
@@ -3630,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>1</v>
@@ -3653,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>1</v>
@@ -3676,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>1</v>
@@ -3699,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>1</v>
@@ -3722,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>1</v>
@@ -3745,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>1</v>
@@ -3768,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>1</v>
@@ -3791,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>1</v>
@@ -3814,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G83" s="37" t="s">
         <v>1</v>
@@ -3837,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G84" s="37" t="s">
         <v>1</v>
@@ -3860,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G85" s="37" t="s">
         <v>1</v>
@@ -3883,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G86" s="37" t="s">
         <v>1</v>
@@ -3906,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G87" s="37" t="s">
         <v>1</v>
@@ -3929,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G88" s="37" t="s">
         <v>1</v>
@@ -3952,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G89" s="37" t="s">
         <v>1</v>
@@ -3975,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G90" s="37" t="s">
         <v>1</v>
@@ -3998,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G91" s="37" t="s">
         <v>1</v>
@@ -4021,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G92" s="37" t="s">
         <v>1</v>
@@ -4044,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G93" s="37" t="s">
         <v>1</v>
@@ -4067,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G94" s="37" t="s">
         <v>1</v>
@@ -4090,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G95" s="37" t="s">
         <v>1</v>
@@ -4113,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G96" s="37" t="s">
         <v>1</v>
@@ -4136,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G97" s="37" t="s">
         <v>1</v>
@@ -4159,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G98" s="37" t="s">
         <v>1</v>
@@ -4182,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G99" s="37" t="s">
         <v>1</v>
@@ -4205,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G100" s="37" t="s">
         <v>1</v>
@@ -4218,12 +4261,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,335 +4280,335 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="6" t="s">
+    </row>
+    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="C4" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="13" t="s">
+    </row>
+    <row r="5" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="14" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="H7" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="I7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="K7" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="C8" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="D8" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="J8" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="33" t="s">
+      <c r="K8" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="K8" s="35" t="s">
+    </row>
+    <row r="9" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="J9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="14" t="s">
+      <c r="H10" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="I10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="K10" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="45" t="s">
+      <c r="D11" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="19" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="23" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="K12" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D14" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>207</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" r:id="rId1"/>

--- a/docs/Figures/CircuitWorking.xlsx
+++ b/docs/Figures/CircuitWorking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\docs\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\4x-Source\docs\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8ECE1969-901C-4DF4-A16E-0D727784D260}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A093F377-7F56-44E3-B672-CA457A5BE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-195" windowWidth="23700" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="6765" windowWidth="23370" windowHeight="21795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidationDataCircuitList" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -560,9 +560,6 @@
     <t>Resistance</t>
   </si>
   <si>
-    <t>Damping</t>
-  </si>
-  <si>
     <t>Clearance</t>
   </si>
   <si>
@@ -584,12 +581,6 @@
     <t>Inductance</t>
   </si>
   <si>
-    <t>Stiffness</t>
-  </si>
-  <si>
-    <t>Torsional Stiffness</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -666,6 +657,18 @@
   </si>
   <si>
     <t>Pulse Included</t>
+  </si>
+  <si>
+    <t>Damping Reciprocal</t>
+  </si>
+  <si>
+    <t>Stiffness Reciprocal</t>
+  </si>
+  <si>
+    <t>Torsional Stiffness Reciprocal</t>
+  </si>
+  <si>
+    <t>Rotary Damping Reciprocal</t>
   </si>
 </sst>
 </file>
@@ -1505,24 +1508,39 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1540,21 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2017,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>1</v>
@@ -2040,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>1</v>
@@ -2063,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>1</v>
@@ -2086,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>1</v>
@@ -2109,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>1</v>
@@ -2132,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>1</v>
@@ -2155,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>1</v>
@@ -2178,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>1</v>
@@ -2201,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>1</v>
@@ -2224,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>1</v>
@@ -2247,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>1</v>
@@ -2270,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>1</v>
@@ -2293,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>1</v>
@@ -2316,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>1</v>
@@ -2339,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>1</v>
@@ -2362,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>1</v>
@@ -2385,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>1</v>
@@ -2408,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>1</v>
@@ -2431,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>1</v>
@@ -2454,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>1</v>
@@ -2477,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>1</v>
@@ -2500,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>1</v>
@@ -2523,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>1</v>
@@ -2546,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>1</v>
@@ -2569,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>1</v>
@@ -2592,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>1</v>
@@ -2615,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>1</v>
@@ -2638,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>1</v>
@@ -2655,13 +2658,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>1</v>
@@ -2678,13 +2681,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>1</v>
@@ -2701,13 +2704,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>1</v>
@@ -2730,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>1</v>
@@ -2753,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>1</v>
@@ -2776,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>1</v>
@@ -2799,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>1</v>
@@ -2822,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>1</v>
@@ -2845,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>1</v>
@@ -2868,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>1</v>
@@ -2891,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>1</v>
@@ -2914,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>1</v>
@@ -2937,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>1</v>
@@ -2960,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>1</v>
@@ -2983,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>1</v>
@@ -3006,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>1</v>
@@ -3029,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>1</v>
@@ -3052,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>1</v>
@@ -3075,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>1</v>
@@ -3098,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>1</v>
@@ -3121,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>1</v>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>1</v>
@@ -3167,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>1</v>
@@ -3190,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>1</v>
@@ -3213,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>1</v>
@@ -3236,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>1</v>
@@ -3259,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>1</v>
@@ -3282,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>1</v>
@@ -3305,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>1</v>
@@ -3328,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>1</v>
@@ -3351,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>1</v>
@@ -3374,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>1</v>
@@ -3397,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>1</v>
@@ -3420,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>1</v>
@@ -3443,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>1</v>
@@ -3466,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>1</v>
@@ -3489,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>1</v>
@@ -3512,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>1</v>
@@ -3535,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>1</v>
@@ -3558,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>1</v>
@@ -3581,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>1</v>
@@ -3604,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>1</v>
@@ -3627,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>1</v>
@@ -3650,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>1</v>
@@ -3673,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>1</v>
@@ -3696,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>1</v>
@@ -3719,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>1</v>
@@ -3742,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>1</v>
@@ -3765,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>1</v>
@@ -3788,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>1</v>
@@ -3811,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>1</v>
@@ -3834,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>1</v>
@@ -3857,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G83" s="37" t="s">
         <v>1</v>
@@ -3880,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G84" s="37" t="s">
         <v>1</v>
@@ -3903,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G85" s="37" t="s">
         <v>1</v>
@@ -3926,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G86" s="37" t="s">
         <v>1</v>
@@ -3949,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G87" s="37" t="s">
         <v>1</v>
@@ -3972,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G88" s="37" t="s">
         <v>1</v>
@@ -3995,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G89" s="37" t="s">
         <v>1</v>
@@ -4018,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G90" s="37" t="s">
         <v>1</v>
@@ -4041,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G91" s="37" t="s">
         <v>1</v>
@@ -4064,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G92" s="37" t="s">
         <v>1</v>
@@ -4087,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G93" s="37" t="s">
         <v>1</v>
@@ -4110,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G94" s="37" t="s">
         <v>1</v>
@@ -4133,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G95" s="37" t="s">
         <v>1</v>
@@ -4156,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G96" s="37" t="s">
         <v>1</v>
@@ -4179,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G97" s="37" t="s">
         <v>1</v>
@@ -4202,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G98" s="37" t="s">
         <v>1</v>
@@ -4225,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G99" s="37" t="s">
         <v>1</v>
@@ -4248,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G100" s="37" t="s">
         <v>1</v>
@@ -4266,41 +4269,41 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="3" customWidth="1"/>
     <col min="2" max="3" width="4.140625" style="3" customWidth="1"/>
-    <col min="4" max="11" width="18" style="3" customWidth="1"/>
+    <col min="4" max="11" width="17.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="1" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="50" t="s">
+      <c r="E2" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="4" t="s">
         <v>137</v>
       </c>
@@ -4324,10 +4327,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4356,8 +4359,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="14" t="s">
         <v>154</v>
       </c>
@@ -4384,8 +4387,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="45" t="s">
         <v>161</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -4414,8 +4417,8 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="23" t="s">
         <v>168</v>
       </c>
@@ -4442,10 +4445,10 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="48" t="s">
         <v>176</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -4464,151 +4467,151 @@
         <v>178</v>
       </c>
       <c r="I8" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="35" t="s">
+    </row>
+    <row r="9" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="H11" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="I11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="J11" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="K11" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I11" s="1" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="E12" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="F12" s="25" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="23" t="s">
+      <c r="G12" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="H12" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="I12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="J12" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="K12" s="28" t="s">
         <v>202</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D14" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" r:id="rId1"/>

--- a/docs/Figures/CircuitWorking.xlsx
+++ b/docs/Figures/CircuitWorking.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\4x-Source\docs\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\docs\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A093F377-7F56-44E3-B672-CA457A5BE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3BD040-E3EB-46B6-8DC3-B3C74847662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="6765" windowWidth="23370" windowHeight="21795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="11010" windowWidth="26895" windowHeight="17355" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidationDataCircuitList" sheetId="4" r:id="rId1"/>
     <sheet name="System Analogies" sheetId="7" r:id="rId2"/>
+    <sheet name="Flow Equations" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="232">
   <si>
     <t>Description</t>
   </si>
@@ -548,9 +549,6 @@
     <t>Angular Momentum</t>
   </si>
   <si>
-    <t>Elements</t>
-  </si>
-  <si>
     <t>Passive</t>
   </si>
   <si>
@@ -635,9 +633,6 @@
     <t xml:space="preserve">Key: </t>
   </si>
   <si>
-    <t>In the CDM</t>
-  </si>
-  <si>
     <t>Compliance</t>
   </si>
   <si>
@@ -656,9 +651,6 @@
     <t>Intentionally failing adding voltage sources in parallel</t>
   </si>
   <si>
-    <t>Pulse Included</t>
-  </si>
-  <si>
     <t>Damping Reciprocal</t>
   </si>
   <si>
@@ -669,13 +661,70 @@
   </si>
   <si>
     <t>Rotary Damping Reciprocal</t>
+  </si>
+  <si>
+    <t>Pulse Required</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Currently Included</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Flux (F) Equation</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Solve F Directly</t>
+  </si>
+  <si>
+    <t>Resistance (R)</t>
+  </si>
+  <si>
+    <t>Capacitance (C)</t>
+  </si>
+  <si>
+    <t>Inductance (L)</t>
+  </si>
+  <si>
+    <t>F Given</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>State: Open</t>
+  </si>
+  <si>
+    <t>State: Closed</t>
+  </si>
+  <si>
+    <t>Criteria: User Selected</t>
+  </si>
+  <si>
+    <t>Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria: </t>
+  </si>
+  <si>
+    <t>Polarized Element</t>
+  </si>
+  <si>
+    <t>Element-Specific Equation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +862,29 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1005,7 +1077,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1352,6 +1424,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1397,7 +1612,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1408,13 +1623,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1507,38 +1722,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,11 +1752,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1615,6 +1889,621 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="F = \frac{{{P_s} - {P_t}}}{R}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F98F19-21B9-4B48-AFAF-971D6721E4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3629025" y="1047750"/>
+          <a:ext cx="838200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="F = C\frac{{{P_s} - {P_t}}}{{dt}}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD418DE8-CA37-4802-9590-16962F45A18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3571875" y="1552575"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="F = \frac{{{P_s} - {P_t}}}{L}dt + {F_o}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43672508-AA18-49BB-A596-6F1E61C67E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3409950" y="2085975"/>
+          <a:ext cx="1352550" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="F = 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCE1BD5-394E-4394-9C57-49E6F17E2C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2847975" y="4038600"/>
+          <a:ext cx="419100" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="F \ge 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4747C7-293D-4D50-8962-DE57210D340F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4752975" y="4562475"/>
+          <a:ext cx="390525" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="F = 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEC8878-BB9B-4023-9E25-A11614CBA42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2847975" y="4772025"/>
+          <a:ext cx="419100" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="{P_s} - {P_t} &lt; 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00F6CDD-A650-4444-BA0A-B4392F8AD0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2676525" y="4562475"/>
+          <a:ext cx="752475" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="F \ge 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667799D0-E521-446A-A692-5539629CA2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4743450" y="5286375"/>
+          <a:ext cx="390525" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="F = 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D7FB8D-EDEF-40C6-83C7-944B523CEC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2847975" y="5486400"/>
+          <a:ext cx="419100" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="{P_s} - {P_t} &lt; 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E6981B-243F-4BD8-8523-B54E18406241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2676525" y="5286375"/>
+          <a:ext cx="752475" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1947,2313 +2836,2312 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="113.140625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="113.140625" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="37" t="s">
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="37" t="s">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="37" t="s">
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="37" t="s">
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="37" t="s">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="37" t="s">
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="37" t="s">
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="37" t="s">
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="37" t="s">
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="37" t="s">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="37" t="s">
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="37" t="s">
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="37" t="s">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="37" t="s">
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G38" s="37" t="s">
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="37" t="s">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="37" t="s">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G39" s="37" t="s">
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="37" t="s">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="37" t="s">
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G40" s="37" t="s">
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="37" t="s">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="37" t="s">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" s="37" t="s">
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="37" t="s">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="37" t="s">
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G42" s="37" t="s">
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="37" t="s">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="37" t="s">
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G43" s="37" t="s">
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="37" t="s">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="37" t="s">
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="37" t="s">
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="37" t="s">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="37" t="s">
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="37" t="s">
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="37" t="s">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="37" t="s">
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G46" s="37" t="s">
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="37" t="s">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="37" t="s">
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47" s="37" t="s">
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="37" t="s">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="37" t="s">
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G48" s="37" t="s">
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="37" t="s">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="37" t="s">
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G49" s="37" t="s">
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="37" t="s">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="37" t="s">
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" s="37" t="s">
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="37" t="s">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="37" t="s">
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G51" s="37" t="s">
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="37" t="s">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="37" t="s">
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="37" t="s">
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="37" t="s">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="37" t="s">
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G53" s="37" t="s">
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="37" t="s">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="37" t="s">
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G54" s="37" t="s">
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="37" t="s">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="37" t="s">
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G55" s="37" t="s">
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="37" t="s">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="37" t="s">
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56" s="37" t="s">
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="37" t="s">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="37" t="s">
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G57" s="37" t="s">
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="37" t="s">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="37" t="s">
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G58" s="37" t="s">
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="37" t="s">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="37" t="s">
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" s="37" t="s">
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="37" t="s">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="37" t="s">
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G60" s="37" t="s">
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="37" t="s">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="37" t="s">
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G61" s="37" t="s">
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="37" t="s">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="37" t="s">
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G62" s="37" t="s">
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="37" t="s">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="37" t="s">
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" s="37" t="s">
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="37" t="s">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="37" t="s">
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G64" s="37" t="s">
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="37" t="s">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="37" t="s">
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G65" s="37" t="s">
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="37" t="s">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="37" t="s">
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G66" s="37" t="s">
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>206</v>
+      </c>
+      <c r="G66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="37" t="s">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="37" t="s">
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G67" s="37" t="s">
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="37" t="s">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="37" t="s">
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="37" t="s">
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>206</v>
+      </c>
+      <c r="G68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="37" t="s">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="37" t="s">
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>89</v>
       </c>
-      <c r="E69" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69" s="37" t="s">
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="37" t="s">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="37" t="s">
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G70" s="37" t="s">
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="37" t="s">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="37" t="s">
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G71" s="37" t="s">
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="37" t="s">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="37" t="s">
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G72" s="37" t="s">
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>206</v>
+      </c>
+      <c r="G72" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="37" t="s">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="37" t="s">
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G73" s="37" t="s">
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>206</v>
+      </c>
+      <c r="G73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="37" t="s">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="37" t="s">
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G74" s="37" t="s">
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>206</v>
+      </c>
+      <c r="G74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="37" t="s">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="37" t="s">
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
         <v>101</v>
       </c>
-      <c r="E75" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" s="37" t="s">
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>206</v>
+      </c>
+      <c r="G75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="37" t="s">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="37" t="s">
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G76" s="37" t="s">
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>206</v>
+      </c>
+      <c r="G76" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="37" t="s">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="37" t="s">
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="37" t="s">
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>206</v>
+      </c>
+      <c r="G77" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="37" t="s">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="37" t="s">
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
         <v>107</v>
       </c>
-      <c r="E78" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G78" s="37" t="s">
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="37" t="s">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="37" t="s">
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G79" s="37" t="s">
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="37" t="s">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="37" t="s">
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
         <v>107</v>
       </c>
-      <c r="E80" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G80" s="37" t="s">
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>206</v>
+      </c>
+      <c r="G80" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="37" t="s">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="37" t="s">
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G81" s="37" t="s">
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>206</v>
+      </c>
+      <c r="G81" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="37" t="s">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="37" t="s">
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
         <v>107</v>
       </c>
-      <c r="E82" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G82" s="37" t="s">
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="37" t="s">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="37" t="s">
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
         <v>109</v>
       </c>
-      <c r="E83" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G83" s="37" t="s">
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="37" t="s">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="37" t="s">
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G84" s="37" t="s">
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>206</v>
+      </c>
+      <c r="G84" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="37" t="s">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="37" t="s">
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
         <v>117</v>
       </c>
-      <c r="E85" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G85" s="37" t="s">
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="37" t="s">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="37" t="s">
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G86" s="37" t="s">
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="37" t="s">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
         <v>119</v>
       </c>
-      <c r="C87" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="37" t="s">
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
         <v>117</v>
       </c>
-      <c r="E87" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F87" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G87" s="37" t="s">
+      <c r="E87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="37" t="s">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="37" t="s">
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
         <v>115</v>
       </c>
-      <c r="E88" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G88" s="37" t="s">
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="37" t="s">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="37" t="s">
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
         <v>117</v>
       </c>
-      <c r="E89" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G89" s="37" t="s">
+      <c r="E89" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="37" t="s">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
         <v>122</v>
       </c>
-      <c r="C90" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="37" t="s">
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G90" s="37" t="s">
+      <c r="E90" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="37" t="s">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="37" t="s">
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G91" s="37" t="s">
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="37" t="s">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="37" t="s">
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G92" s="37" t="s">
+      <c r="E92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>206</v>
+      </c>
+      <c r="G92" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="37" t="s">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="37" t="s">
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
         <v>125</v>
       </c>
-      <c r="E93" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G93" s="37" t="s">
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>206</v>
+      </c>
+      <c r="G93" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="37" t="s">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="37" t="s">
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
         <v>125</v>
       </c>
-      <c r="E94" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G94" s="37" t="s">
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>206</v>
+      </c>
+      <c r="G94" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="37" t="s">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="37" t="s">
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
         <v>129</v>
       </c>
-      <c r="E95" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F95" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G95" s="37" t="s">
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>206</v>
+      </c>
+      <c r="G95" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="37" t="s">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="37" t="s">
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G96" s="37" t="s">
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>206</v>
+      </c>
+      <c r="G96" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="37" t="s">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="37" t="s">
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
         <v>129</v>
       </c>
-      <c r="E97" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G97" s="37" t="s">
+      <c r="E97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>206</v>
+      </c>
+      <c r="G97" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="37" t="s">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="37" t="s">
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G98" s="37" t="s">
+      <c r="E98" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="37" t="s">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="37" t="s">
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G99" s="37" t="s">
+      <c r="E99" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>206</v>
+      </c>
+      <c r="G99" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="37" t="s">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="37" t="s">
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G100" s="37" t="s">
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>206</v>
+      </c>
+      <c r="G100" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4268,8 +5156,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,27 +5171,27 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="38" t="s">
+      <c r="E2" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="4" t="s">
         <v>137</v>
       </c>
@@ -4327,10 +5215,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="51" t="s">
         <v>145</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4359,8 +5247,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="14" t="s">
         <v>154</v>
       </c>
@@ -4387,8 +5275,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="41" t="s">
         <v>161</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -4417,8 +5305,8 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="23" t="s">
         <v>168</v>
       </c>
@@ -4445,175 +5333,347 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="D8" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="35" t="s">
+    </row>
+    <row r="9" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>185</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="19" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="23" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="K12" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D14" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833273EC-DC19-4379-AF8E-9C43B007AAA8}">
+  <dimension ref="B1:D17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="2:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="57"/>
+    </row>
+    <row r="4" spans="2:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="5" spans="2:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+    </row>
+    <row r="6" spans="2:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+    </row>
+    <row r="7" spans="2:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="2:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="57"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="64"/>
+      <c r="C13" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>